--- a/trunk/ projectquanlybongdavodichquocgia/Document/Bao Cao Lan2/CSDL Moi.xlsx
+++ b/trunk/ projectquanlybongdavodichquocgia/Document/Bao Cao Lan2/CSDL Moi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7170"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19440" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="CSDL" sheetId="1" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2127,6 +2127,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2148,10 +2164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,32 +2471,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL22"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:52">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:52">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:52">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:52">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:52">
       <c r="O6" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:52">
       <c r="O7" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:52">
       <c r="O8" t="s">
         <v>11</v>
       </c>
@@ -2570,42 +2588,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:52">
       <c r="O9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:52">
       <c r="O10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:52">
       <c r="O11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AM15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AY15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BK15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:64">
+    </row>
+    <row r="16" spans="1:52">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2621,11 +2636,8 @@
       <c r="AZ16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="BL16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:64">
+    </row>
+    <row r="17" spans="1:52">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2641,11 +2653,8 @@
       <c r="AZ17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BL17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:64">
+    </row>
+    <row r="18" spans="1:52">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -2661,11 +2670,8 @@
       <c r="AZ18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BL18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:64">
+    </row>
+    <row r="19" spans="1:52">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:64">
+    <row r="20" spans="1:52">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -2693,14 +2699,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:64">
+    <row r="21" spans="1:52">
       <c r="AZ21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:64">
+    <row r="22" spans="1:52">
       <c r="AZ22" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ projectquanlybongdavodichquocgia/Document/Bao Cao Lan2/CSDL Moi.xlsx
+++ b/trunk/ projectquanlybongdavodichquocgia/Document/Bao Cao Lan2/CSDL Moi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="696">
   <si>
     <t>BHL</t>
   </si>
@@ -2095,19 +2095,38 @@
   </si>
   <si>
     <t xml:space="preserve">select row_number() over (order by tongdiem desc,sobanghiduoc desc,sobanbilotluoi asc) as 'Ha_x001E_ng',  MaDB, TenDB, tongdiem ongdie_x001E_m', sobanghiduoc 'obanghiduoc', sobanbilotluoi 'Sobanbilotluoi' from DoiBong db </t>
+  </si>
+  <si>
+    <t>THAMSO</t>
+  </si>
+  <si>
+    <t>MATHAMSO(NVARCHAR(10))</t>
+  </si>
+  <si>
+    <t>GIATRI(NVARCHAR(100))</t>
+  </si>
+  <si>
+    <t>TENTHAMSO(NVARCHAR(20))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2164,12 +2183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2473,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
@@ -2713,20 +2733,32 @@
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="N23" s="3" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="24" spans="1:52">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N24" s="1" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="25" spans="1:52">
       <c r="B25" t="s">
         <v>53</v>
       </c>
+      <c r="N25" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="26" spans="1:52">
       <c r="B26" t="s">
         <v>9</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
